--- a/Simulation/Graph_data/2013-12-02-01.xlsx
+++ b/Simulation/Graph_data/2013-12-02-01.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>user_12</t>
     <phoneticPr fontId="1"/>
@@ -97,6 +100,18 @@
     <t>true_ability_score</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>question_</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>true_difficult</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -154,8 +169,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -182,7 +203,7 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="29">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -194,6 +215,9 @@
     <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -206,6 +230,9 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -12412,11 +12439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143796728"/>
-        <c:axId val="-2143660152"/>
+        <c:axId val="-2124951176"/>
+        <c:axId val="-2124948280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143796728"/>
+        <c:axId val="-2124951176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12425,7 +12452,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143660152"/>
+        <c:crossAx val="-2124948280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12433,7 +12460,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143660152"/>
+        <c:axId val="-2124948280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12444,7 +12471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143796728"/>
+        <c:crossAx val="-2124951176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24670,11 +24697,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135641880"/>
-        <c:axId val="-2135628680"/>
+        <c:axId val="-2124939736"/>
+        <c:axId val="-2124936568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135641880"/>
+        <c:axId val="-2124939736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24683,7 +24710,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135628680"/>
+        <c:crossAx val="-2124936568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24691,7 +24718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135628680"/>
+        <c:axId val="-2124936568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24702,7 +24729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135641880"/>
+        <c:crossAx val="-2124939736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -24713,7 +24740,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -36928,11 +36954,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2143853976"/>
-        <c:axId val="-2144289512"/>
+        <c:axId val="-2124867624"/>
+        <c:axId val="-2124864568"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2143853976"/>
+        <c:axId val="-2124867624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36941,7 +36967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144289512"/>
+        <c:crossAx val="-2124864568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -36949,7 +36975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144289512"/>
+        <c:axId val="-2124864568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -36960,7 +36986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143853976"/>
+        <c:crossAx val="-2124867624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -36971,7 +36997,6 @@
         <c:idx val="3"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -37415,8 +37440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -79691,4 +79716,119 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>